--- a/2. Algorithmie/Solutions/4.7 assurances les differents cas.xlsx
+++ b/2. Algorithmie/Solutions/4.7 assurances les differents cas.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\GRP-21\Reference\00 - Intégration\03 - Algorithmie\Quelques corrections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\59014-18-06\Documents\DWWM_AI_2526\2. Algorithmie\Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E05F02-5F6F-4BF4-A791-D3AB6C73E465}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="19">
   <si>
     <t>Valeur saisie</t>
   </si>
@@ -87,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -182,15 +183,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -207,6 +199,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,215 +487,215 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="8" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
         <v>2</v>
       </c>
-      <c r="G3" s="7">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
         <v>58</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
         <v>59</v>
       </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
         <v>59</v>
       </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
         <v>59</v>
       </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
         <v>60</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="4">
         <v>2</v>
       </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
         <v>2</v>
       </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>23</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>58</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>23</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="2">
         <v>59</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="4">
         <v>23</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="2">
         <v>59</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="4">
         <v>23</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="2">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>23</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="5">
         <v>59</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>23</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="2">
         <v>60</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="6">
         <v>24</v>
       </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
         <v>0</v>
       </c>
     </row>
@@ -711,733 +712,739 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10">
-        <v>1</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10">
-        <v>0</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10">
-        <v>1</v>
-      </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10">
-        <v>1</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7">
         <v>2</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10">
-        <v>0</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10" t="s">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10">
-        <v>1</v>
-      </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10">
-        <v>1</v>
-      </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10">
-        <v>1</v>
-      </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10">
-        <v>0</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10">
-        <v>0</v>
-      </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10">
-        <v>1</v>
-      </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10">
-        <v>0</v>
-      </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7">
         <v>2</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10">
-        <v>0</v>
-      </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10" t="s">
+      <c r="H16" s="7"/>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10">
-        <v>0</v>
-      </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10">
-        <v>1</v>
-      </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10">
-        <v>1</v>
-      </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10">
-        <v>1</v>
-      </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10">
-        <v>0</v>
-      </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10">
-        <v>1</v>
-      </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10">
-        <v>0</v>
-      </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7">
         <v>2</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10">
-        <v>0</v>
-      </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10" t="s">
+      <c r="H22" s="7"/>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7">
         <v>3</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10">
-        <v>0</v>
-      </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10" t="s">
+      <c r="H23" s="7"/>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10">
-        <v>0</v>
-      </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10">
-        <v>1</v>
-      </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10">
-        <v>1</v>
-      </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10">
-        <v>1</v>
-      </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7">
+        <v>1</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7">
         <v>2</v>
       </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10">
-        <v>1</v>
-      </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10" t="s">
+      <c r="H26" s="7"/>
+      <c r="I26" s="7">
+        <v>1</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7">
         <v>3</v>
       </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10">
-        <v>1</v>
-      </c>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10" t="s">
+      <c r="H27" s="7"/>
+      <c r="I27" s="7">
+        <v>1</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7">
         <v>4</v>
       </c>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10">
-        <v>1</v>
-      </c>
-      <c r="K27" s="10" t="s">
+      <c r="H28" s="7"/>
+      <c r="I28" s="7">
+        <v>1</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="L33" s="11" t="s">
+      <c r="L34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="M33" s="11" t="s">
+      <c r="M34" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N33" s="11" t="s">
+      <c r="N34" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="O33" s="11" t="s">
+      <c r="O34" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10">
-        <v>0</v>
-      </c>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10">
-        <v>0</v>
-      </c>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10">
-        <v>0</v>
-      </c>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10">
-        <v>0</v>
-      </c>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="E36" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10">
-        <v>0</v>
-      </c>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10">
-        <v>0</v>
-      </c>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="E37" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10">
-        <v>0</v>
-      </c>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10">
-        <v>0</v>
-      </c>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="N37" s="10" t="s">
-        <v>12</v>
-      </c>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7">
+        <v>0</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="E37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7">
+        <v>0</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="E38" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7">
+        <v>0</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="N38" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1454,7 +1461,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1471,7 +1478,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -1488,7 +1495,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1505,7 +1512,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1522,7 +1529,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1539,7 +1546,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1556,7 +1563,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1573,7 +1580,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1590,7 +1597,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1607,6 +1614,23 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
